--- a/data/trans_orig/P16A04-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10101</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4815</v>
+        <v>4673</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18465</v>
+        <v>19477</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02132019500562083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01016291776846409</v>
+        <v>0.009862658779038722</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03897361261286598</v>
+        <v>0.04110916595461747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3073</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8313</v>
+        <v>8160</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01002041257439229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003152319956884168</v>
+        <v>0.003042145371113926</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02710803085573936</v>
+        <v>0.0266082920690706</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>13174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6637</v>
+        <v>7411</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22533</v>
+        <v>22613</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01687994729233305</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00850393120156899</v>
+        <v>0.009495755319065153</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02887170386892625</v>
+        <v>0.02897416175276399</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>463675</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>455311</v>
+        <v>454299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468961</v>
+        <v>469103</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9786798049943791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9610263873871341</v>
+        <v>0.9588908340453821</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9898370822315359</v>
+        <v>0.9901373412209612</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>295</v>
@@ -836,19 +836,19 @@
         <v>303607</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298367</v>
+        <v>298520</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305713</v>
+        <v>305747</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9899795874256078</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9728919691442606</v>
+        <v>0.9733917079309293</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9968476800431159</v>
+        <v>0.9969578546288861</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>741</v>
@@ -857,19 +857,19 @@
         <v>767283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757924</v>
+        <v>757844</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>773820</v>
+        <v>773046</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.983120052707667</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9711282961310738</v>
+        <v>0.971025838247236</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.991496068798431</v>
+        <v>0.9905042446809348</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>3800</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1029</v>
+        <v>881</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9519</v>
+        <v>8972</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0103556144952924</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002804628521529544</v>
+        <v>0.002401728025132698</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02594329933352066</v>
+        <v>0.02445124183825749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -982,19 +982,19 @@
         <v>9674</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4999</v>
+        <v>4812</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17146</v>
+        <v>17835</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02601358096407982</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01344314499302959</v>
+        <v>0.01294133179560033</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0461086033300558</v>
+        <v>0.04796128530574623</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1003,19 +1003,19 @@
         <v>13473</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7770</v>
+        <v>7368</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22384</v>
+        <v>22561</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01823684816354284</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01051726280751037</v>
+        <v>0.009973595799959073</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03029802272603479</v>
+        <v>0.03053751469221067</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>363134</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>357415</v>
+        <v>357962</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>365905</v>
+        <v>366053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9896443855047076</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9740567006664794</v>
+        <v>0.9755487581617428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9971953714784705</v>
+        <v>0.9975982719748673</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>353</v>
@@ -1053,19 +1053,19 @@
         <v>362191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>354719</v>
+        <v>354030</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>366866</v>
+        <v>367053</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9739864190359202</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9538913966699439</v>
+        <v>0.9520387146942536</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9865568550069702</v>
+        <v>0.9870586682043997</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>699</v>
@@ -1074,19 +1074,19 @@
         <v>725326</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>716415</v>
+        <v>716238</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>731029</v>
+        <v>731431</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9817631518364571</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9697019772739643</v>
+        <v>0.9694624853077893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9894827371924896</v>
+        <v>0.990026404200041</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>8902</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4490</v>
+        <v>4398</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15838</v>
+        <v>15101</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01641306914197546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008278616686510015</v>
+        <v>0.008107850937026128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02919966498449063</v>
+        <v>0.02784251331332573</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1199,19 +1199,19 @@
         <v>5893</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1971</v>
+        <v>2187</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12005</v>
+        <v>12657</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03512221266946155</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01174822914258668</v>
+        <v>0.01303530623960771</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07155326219084852</v>
+        <v>0.07543799631123996</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1220,19 +1220,19 @@
         <v>14795</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8324</v>
+        <v>8743</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23075</v>
+        <v>23779</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02083320989995901</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01172148955029237</v>
+        <v>0.01231058774871153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0324916144925625</v>
+        <v>0.03348358440875696</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>533487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>526551</v>
+        <v>527288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>537899</v>
+        <v>537991</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9835869308580245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9708003350155097</v>
+        <v>0.9721574866866743</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9917213833134906</v>
+        <v>0.991892149062974</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>158</v>
@@ -1270,19 +1270,19 @@
         <v>161889</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155777</v>
+        <v>155125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165811</v>
+        <v>165595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9648777873305384</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9284467378091514</v>
+        <v>0.92456200368876</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9882517708574133</v>
+        <v>0.9869646937603921</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>680</v>
@@ -1291,19 +1291,19 @@
         <v>695376</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>687096</v>
+        <v>686392</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>701847</v>
+        <v>701428</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.979166790100041</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9675083855074376</v>
+        <v>0.9665164155912431</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9882785104497077</v>
+        <v>0.9876894122512885</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>23399</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14513</v>
+        <v>15990</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35705</v>
+        <v>35467</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01889538459368897</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01171952784169124</v>
+        <v>0.01291241065466314</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02883307936949714</v>
+        <v>0.02864090041613846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1416,19 +1416,19 @@
         <v>20449</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13157</v>
+        <v>13404</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30573</v>
+        <v>31248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02862868939925298</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0184203119343325</v>
+        <v>0.01876515794392094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04280238780715031</v>
+        <v>0.04374733993426539</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1437,19 +1437,19 @@
         <v>43848</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31242</v>
+        <v>32368</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58006</v>
+        <v>58576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0224559123952978</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01600008015920213</v>
+        <v>0.01657657702044516</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02970668157767705</v>
+        <v>0.02999846733551989</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1214935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1202629</v>
+        <v>1202867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1223821</v>
+        <v>1222344</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.981104615406311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9711669206305028</v>
+        <v>0.9713590995838615</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9882804721583088</v>
+        <v>0.9870875893453367</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>674</v>
@@ -1487,19 +1487,19 @@
         <v>693836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>683712</v>
+        <v>683037</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>701128</v>
+        <v>700881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.971371310600747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9571976121928496</v>
+        <v>0.9562526600657346</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9815796880656674</v>
+        <v>0.981234842056079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1875</v>
@@ -1508,19 +1508,19 @@
         <v>1908772</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1894614</v>
+        <v>1894044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1921378</v>
+        <v>1920252</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9775440876047022</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.970293318422323</v>
+        <v>0.9700015326644801</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9839999198407979</v>
+        <v>0.983423422979555</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>10538</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5042</v>
+        <v>5571</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18239</v>
+        <v>18797</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03014943182291167</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0144251600197297</v>
+        <v>0.01593682608943521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05218030425213874</v>
+        <v>0.05377633915305629</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>13527</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7445</v>
+        <v>7130</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24515</v>
+        <v>23271</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02378305195529667</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01308937646516845</v>
+        <v>0.01253580057733411</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.043103518345389</v>
+        <v>0.0409152752570168</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1654,19 +1654,19 @@
         <v>24065</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15710</v>
+        <v>15528</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36145</v>
+        <v>36851</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02620634799770987</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.017108420956076</v>
+        <v>0.01690936527261602</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03936109307002358</v>
+        <v>0.04013048170123254</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>338999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>331298</v>
+        <v>330740</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>344495</v>
+        <v>343966</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9698505681770884</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9478196957478613</v>
+        <v>0.946223660846944</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9855748399802703</v>
+        <v>0.9840631739105649</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>527</v>
@@ -1704,19 +1704,19 @@
         <v>555225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>544237</v>
+        <v>545481</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>561307</v>
+        <v>561622</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9762169480447034</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9568964816546108</v>
+        <v>0.959084724742983</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9869106235348315</v>
+        <v>0.9874641994226658</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>855</v>
@@ -1725,19 +1725,19 @@
         <v>894224</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>882144</v>
+        <v>881438</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>902579</v>
+        <v>902761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9737936520022902</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9606389069299763</v>
+        <v>0.9598695182987683</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9828915790439239</v>
+        <v>0.983090634727384</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6965</v>
+        <v>7051</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006446339899750917</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02335514796805293</v>
+        <v>0.02364427910943252</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1850,19 +1850,19 @@
         <v>22174</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14195</v>
+        <v>14631</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33745</v>
+        <v>33722</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01775714993929349</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01136750027886079</v>
+        <v>0.01171677646005275</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02702297995373425</v>
+        <v>0.02700448216682421</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1871,19 +1871,19 @@
         <v>24097</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14786</v>
+        <v>15520</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34523</v>
+        <v>35419</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01557681629127102</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009557934170057143</v>
+        <v>0.01003229410062211</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02231639360606386</v>
+        <v>0.02289591464372117</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>296279</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>291236</v>
+        <v>291150</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.993553660100249</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9766448520319471</v>
+        <v>0.9763557208905674</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1226586</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1215015</v>
+        <v>1215038</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1234565</v>
+        <v>1234129</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9822428500607066</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.972977020046266</v>
+        <v>0.9729955178331759</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9886324997211393</v>
+        <v>0.9882832235399474</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1519</v>
@@ -1942,19 +1942,19 @@
         <v>1522863</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1512437</v>
+        <v>1511541</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1532174</v>
+        <v>1531440</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9844231837087289</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9776836063939361</v>
+        <v>0.9771040853562788</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9904420658299429</v>
+        <v>0.9899677058993779</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>58663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44396</v>
+        <v>45251</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74742</v>
+        <v>74362</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01794416440561545</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01358015736914912</v>
+        <v>0.01384187271609582</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02286273649790284</v>
+        <v>0.02274657025726836</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -2067,19 +2067,19 @@
         <v>74790</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59576</v>
+        <v>58895</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91555</v>
+        <v>93858</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02213938670513406</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01763592688228192</v>
+        <v>0.01743420072245483</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02710236714472712</v>
+        <v>0.02778414471645271</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>133</v>
@@ -2088,19 +2088,19 @@
         <v>133452</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>112998</v>
+        <v>111784</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>158967</v>
+        <v>159016</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02007615635271284</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01699904875149923</v>
+        <v>0.01681645412308051</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02391459679820832</v>
+        <v>0.02392194995415947</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3210509</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3194430</v>
+        <v>3194810</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3224776</v>
+        <v>3223921</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9820558355943846</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9771372635020972</v>
+        <v>0.9772534297427315</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9864198426308507</v>
+        <v>0.9861581272839041</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3222</v>
@@ -2138,19 +2138,19 @@
         <v>3303334</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3286569</v>
+        <v>3284266</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3318548</v>
+        <v>3319229</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.977860613294866</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9728976328552729</v>
+        <v>0.9722158552835471</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.982364073117718</v>
+        <v>0.9825657992775452</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6369</v>
@@ -2159,19 +2159,19 @@
         <v>6513844</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6488329</v>
+        <v>6488280</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6534298</v>
+        <v>6535512</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9799238436472871</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9760854032017917</v>
+        <v>0.9760780500458406</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9830009512485004</v>
+        <v>0.9831835458769195</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>11372</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5591</v>
+        <v>5225</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22646</v>
+        <v>22068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02614032493407079</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01285242758608795</v>
+        <v>0.01201014389810804</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05205671185845757</v>
+        <v>0.05072799590542946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2526,19 +2526,19 @@
         <v>7602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2869</v>
+        <v>2917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15133</v>
+        <v>14981</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02417632794312508</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009123374113107395</v>
+        <v>0.009276688267979009</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04812422308624439</v>
+        <v>0.04764222948644103</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2547,19 +2547,19 @@
         <v>18974</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11147</v>
+        <v>10701</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31650</v>
+        <v>30870</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02531629685821505</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01487262094416248</v>
+        <v>0.01427844239264179</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04223029673150818</v>
+        <v>0.04118942677982704</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>423647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412373</v>
+        <v>412951</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>429428</v>
+        <v>429794</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9738596750659292</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9479432881415424</v>
+        <v>0.9492720040945701</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.987147572413912</v>
+        <v>0.9879898561018919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -2597,19 +2597,19 @@
         <v>306852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299321</v>
+        <v>299473</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311585</v>
+        <v>311537</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9758236720568749</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9518757769137556</v>
+        <v>0.9523577705135581</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9908766258868926</v>
+        <v>0.990723311732021</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>670</v>
@@ -2618,19 +2618,19 @@
         <v>730499</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>717823</v>
+        <v>718603</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>738326</v>
+        <v>738772</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.974683703141785</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9577697032684916</v>
+        <v>0.9588105732201729</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9851273790558375</v>
+        <v>0.985721557607358</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>8102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3892</v>
+        <v>3789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15207</v>
+        <v>14822</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01942876116194459</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009333501001577997</v>
+        <v>0.009086213448667856</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03646646251610412</v>
+        <v>0.03554171228765959</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2743,19 +2743,19 @@
         <v>7109</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3045</v>
+        <v>2962</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14347</v>
+        <v>13652</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02120004861701168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009080974762423822</v>
+        <v>0.008834654384056987</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0427853041596329</v>
+        <v>0.04071268104278919</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2764,19 +2764,19 @@
         <v>15211</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8951</v>
+        <v>8955</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24581</v>
+        <v>24810</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02021822526782616</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01189753685483317</v>
+        <v>0.01190256201825464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03267253817913621</v>
+        <v>0.03297777057119378</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>408916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>401811</v>
+        <v>402196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>413126</v>
+        <v>413229</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9805712388380554</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9635335374838959</v>
+        <v>0.9644582877123402</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.990666498998422</v>
+        <v>0.9909137865513321</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>296</v>
@@ -2814,19 +2814,19 @@
         <v>328206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>320968</v>
+        <v>321663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>332270</v>
+        <v>332353</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9787999513829884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9572146958403679</v>
+        <v>0.9592873189572106</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9909190252375764</v>
+        <v>0.9911653456159429</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>661</v>
@@ -2835,19 +2835,19 @@
         <v>737122</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>727752</v>
+        <v>727523</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>743382</v>
+        <v>743378</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9797817747321739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9673274618208638</v>
+        <v>0.9670222294288062</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9881024631451668</v>
+        <v>0.9880974379817453</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>23153</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13588</v>
+        <v>13978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38073</v>
+        <v>35845</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03696616496246539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02169484747513509</v>
+        <v>0.02231742679024696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06078699406812206</v>
+        <v>0.05722982278811832</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2960,19 +2960,19 @@
         <v>7347</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3167</v>
+        <v>3055</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13843</v>
+        <v>14718</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02836799171087528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.012227181158007</v>
+        <v>0.01179681947484567</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05345318580437088</v>
+        <v>0.05682890327616073</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -2981,19 +2981,19 @@
         <v>30500</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19828</v>
+        <v>20203</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45348</v>
+        <v>46188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03445096438309276</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02239678796653251</v>
+        <v>0.0228205000909663</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0512225932859814</v>
+        <v>0.0521713088899167</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>603185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>588265</v>
+        <v>590493</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>612750</v>
+        <v>612360</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9630338350375346</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9392130059318776</v>
+        <v>0.9427701772118816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9783051525248646</v>
+        <v>0.977682573209753</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>236</v>
@@ -3031,19 +3031,19 @@
         <v>251633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>245137</v>
+        <v>244262</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255813</v>
+        <v>255925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9716320082891248</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.946546814195629</v>
+        <v>0.9431710967238391</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9877728188419931</v>
+        <v>0.9882031805251543</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>807</v>
@@ -3052,19 +3052,19 @@
         <v>854818</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>839970</v>
+        <v>839130</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>865490</v>
+        <v>865115</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9655490356169072</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9487774067140187</v>
+        <v>0.9478286911100828</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9776032120334676</v>
+        <v>0.9771794999090337</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>35322</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24152</v>
+        <v>24601</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49657</v>
+        <v>50827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03054439182592431</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02088490507623739</v>
+        <v>0.02127364166178442</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04294033710331269</v>
+        <v>0.04395165003388241</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3177,19 +3177,19 @@
         <v>34697</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23621</v>
+        <v>23247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47484</v>
+        <v>49186</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04531623893794776</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03085073727475564</v>
+        <v>0.03036140502624879</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06201747180232256</v>
+        <v>0.06424025817232325</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -3198,19 +3198,19 @@
         <v>70019</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53397</v>
+        <v>53704</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89270</v>
+        <v>88477</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03642874674336012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02778075281663993</v>
+        <v>0.02794072210323728</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04644464064167404</v>
+        <v>0.04603208124566176</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1121099</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1106764</v>
+        <v>1105594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1132269</v>
+        <v>1131820</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9694556081740757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9570596628966876</v>
+        <v>0.9560483499661173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.979115094923763</v>
+        <v>0.9787263583382155</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>679</v>
@@ -3248,19 +3248,19 @@
         <v>730963</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>718176</v>
+        <v>716474</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>742039</v>
+        <v>742413</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9546837610620522</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9379825281976774</v>
+        <v>0.9357597418276767</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9691492627252443</v>
+        <v>0.9696385949737505</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1729</v>
@@ -3269,19 +3269,19 @@
         <v>1852062</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1832811</v>
+        <v>1833604</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1868684</v>
+        <v>1868377</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9635712532566398</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.953555359358326</v>
+        <v>0.9539679187543382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9722192471833601</v>
+        <v>0.9720592778967626</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>16558</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10238</v>
+        <v>9257</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25545</v>
+        <v>25416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03242798498453828</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0200503081553875</v>
+        <v>0.018129175667704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05002990210249041</v>
+        <v>0.04977780065518699</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3394,19 +3394,19 @@
         <v>16335</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9514</v>
+        <v>9198</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26207</v>
+        <v>26668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02153942389444359</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0125455234050201</v>
+        <v>0.01212831529822003</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03455672598998402</v>
+        <v>0.03516559356127651</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -3415,19 +3415,19 @@
         <v>32892</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22413</v>
+        <v>22369</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45404</v>
+        <v>46218</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02592068121570042</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01766266386516771</v>
+        <v>0.01762794557920461</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03578041469269778</v>
+        <v>0.03642195868345603</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>494038</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>485051</v>
+        <v>485180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>500358</v>
+        <v>501339</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9675720150154618</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9499700978975091</v>
+        <v>0.950222199344813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9799496918446123</v>
+        <v>0.9818708243322959</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>686</v>
@@ -3465,19 +3465,19 @@
         <v>742033</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>732161</v>
+        <v>731700</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>748854</v>
+        <v>749170</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9784605761055564</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9654432740100162</v>
+        <v>0.9648344064387242</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.98745447659498</v>
+        <v>0.9878716847017804</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1157</v>
@@ -3486,19 +3486,19 @@
         <v>1236072</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1223560</v>
+        <v>1222746</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1246551</v>
+        <v>1246595</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9740793187842995</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9642195853073018</v>
+        <v>0.963578041316544</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9823373361348322</v>
+        <v>0.9823720544207954</v>
       </c>
     </row>
     <row r="18">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03084805459985466</v>
+        <v>0.03084987889717883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -3611,19 +3611,19 @@
         <v>28228</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18684</v>
+        <v>19201</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40866</v>
+        <v>40423</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02553990063639224</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01690454288881751</v>
+        <v>0.0173728189633177</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03697446935464948</v>
+        <v>0.0365731603270331</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -3632,19 +3632,19 @@
         <v>30527</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20492</v>
+        <v>20803</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42317</v>
+        <v>43804</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0222643433921712</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01494586146040183</v>
+        <v>0.01517242369842743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03086342150389415</v>
+        <v>0.03194834703684391</v>
       </c>
     </row>
     <row r="20">
@@ -3670,7 +3670,7 @@
         <v>0.9913540597956365</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9691519454001452</v>
+        <v>0.9691501211028205</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3682,19 +3682,19 @@
         <v>1077028</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1064390</v>
+        <v>1064833</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1086572</v>
+        <v>1086055</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9744600993636078</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9630255306453505</v>
+        <v>0.9634268396729669</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9830954571111824</v>
+        <v>0.9826271810366823</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1275</v>
@@ -3703,19 +3703,19 @@
         <v>1340571</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1328781</v>
+        <v>1327294</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1350606</v>
+        <v>1350295</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9777356566078288</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9691365784961058</v>
+        <v>0.9680516529631559</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9850541385395981</v>
+        <v>0.9848275763015725</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>96805</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74886</v>
+        <v>75483</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120558</v>
+        <v>118728</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0283783672841476</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02195288168582265</v>
+        <v>0.02212791591646753</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03534132599040204</v>
+        <v>0.03480504226680051</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>93</v>
@@ -3828,19 +3828,19 @@
         <v>101318</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82395</v>
+        <v>81005</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>122642</v>
+        <v>123032</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02863668625675864</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02328845239698304</v>
+        <v>0.02289545635249891</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03466400006024828</v>
+        <v>0.03477419679986372</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>176</v>
@@ -3849,19 +3849,19 @@
         <v>198123</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169682</v>
+        <v>170046</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>229146</v>
+        <v>229982</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02850988347295705</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02441731889408519</v>
+        <v>0.02446960191094661</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03297405412747868</v>
+        <v>0.03309438933706872</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3314429</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3290676</v>
+        <v>3292506</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3336348</v>
+        <v>3335751</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9716216327158524</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.964658674009598</v>
+        <v>0.9651949577331995</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9780471183141773</v>
+        <v>0.9778720840835324</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3186</v>
@@ -3899,19 +3899,19 @@
         <v>3436715</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3415391</v>
+        <v>3415001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3455638</v>
+        <v>3457028</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9713633137432414</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9653359999397517</v>
+        <v>0.9652258032001364</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9767115476030169</v>
+        <v>0.9771045436475011</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6299</v>
@@ -3920,19 +3920,19 @@
         <v>6751144</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6720121</v>
+        <v>6719285</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6779585</v>
+        <v>6779221</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.971490116527043</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9670259458725209</v>
+        <v>0.9669056106629313</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9755826811059147</v>
+        <v>0.9755303980890534</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>13553</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7173</v>
+        <v>7483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23058</v>
+        <v>23222</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03158534935199685</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01671740184283093</v>
+        <v>0.01743940300529456</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05373594015298233</v>
+        <v>0.05411809228244603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4287,19 +4287,19 @@
         <v>4829</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12386</v>
+        <v>12212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01391453422782111</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003187561200078387</v>
+        <v>0.003221902153298595</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0356899519725269</v>
+        <v>0.03518685493843774</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -4308,19 +4308,19 @@
         <v>18382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11117</v>
+        <v>10663</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30716</v>
+        <v>30317</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02368382586829613</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01432310656377627</v>
+        <v>0.01373872755979114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03957559237958874</v>
+        <v>0.0390609106898465</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>415539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406034</v>
+        <v>405870</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>421919</v>
+        <v>421609</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9684146506480031</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9462640598470171</v>
+        <v>0.9458819077175541</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.983282598157169</v>
+        <v>0.9825605969947055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>328</v>
@@ -4358,19 +4358,19 @@
         <v>342226</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>334669</v>
+        <v>334843</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345949</v>
+        <v>345937</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9860854657721789</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.964310048027473</v>
+        <v>0.9648131450615621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9968124387999215</v>
+        <v>0.9967780978467015</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>712</v>
@@ -4379,19 +4379,19 @@
         <v>757765</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>745431</v>
+        <v>745830</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>765030</v>
+        <v>765484</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9763161741317039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9604244076204111</v>
+        <v>0.9609390893101535</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9856768934362237</v>
+        <v>0.9862612724402088</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>7099</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3108</v>
+        <v>3057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14333</v>
+        <v>14607</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01881762456841918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008238213210169518</v>
+        <v>0.0081045422698691</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03799514117258018</v>
+        <v>0.03872250307523957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4504,19 +4504,19 @@
         <v>4645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1249</v>
+        <v>1330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11067</v>
+        <v>11142</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01247768716583255</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003356113674645314</v>
+        <v>0.003573513258006314</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02972716240995335</v>
+        <v>0.02992955381769106</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4525,19 +4525,19 @@
         <v>11744</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5960</v>
+        <v>6165</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20499</v>
+        <v>20088</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01566860737163501</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007951396744023606</v>
+        <v>0.008225479380479621</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02735030715326783</v>
+        <v>0.02680219864851439</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>370128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>362894</v>
+        <v>362620</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>374119</v>
+        <v>374170</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9811823754315808</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9620048588274199</v>
+        <v>0.9612774969247607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9917617867898305</v>
+        <v>0.9918954577301309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>348</v>
@@ -4575,19 +4575,19 @@
         <v>367628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361206</v>
+        <v>361131</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371024</v>
+        <v>370943</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9875223128341675</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9702728375900467</v>
+        <v>0.9700704461823092</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9966438863253547</v>
+        <v>0.9964264867419936</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>695</v>
@@ -4596,19 +4596,19 @@
         <v>737756</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>729001</v>
+        <v>729412</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>743540</v>
+        <v>743335</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.984331392628365</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9726496928467322</v>
+        <v>0.9731978013514856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9920486032559763</v>
+        <v>0.9917745206195203</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>6157</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2936</v>
+        <v>2087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13358</v>
+        <v>12948</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01179766346186543</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005625798644571643</v>
+        <v>0.003998864224721504</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02559428306726289</v>
+        <v>0.02480904589042769</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4721,19 +4721,19 @@
         <v>7762</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2875</v>
+        <v>2883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15885</v>
+        <v>16275</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04672208238067104</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01730360849355981</v>
+        <v>0.01735455652247417</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09561892251957267</v>
+        <v>0.09796758955964571</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -4742,19 +4742,19 @@
         <v>13919</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7341</v>
+        <v>7427</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23400</v>
+        <v>24747</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02022998129202993</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01066956347117081</v>
+        <v>0.01079403498871947</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03401019256571987</v>
+        <v>0.0359671110470214</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>515757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508556</v>
+        <v>508966</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>518978</v>
+        <v>519827</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9882023365381346</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9744057169327369</v>
+        <v>0.9751909541095722</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9943742013554283</v>
+        <v>0.9960011357752785</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>147</v>
@@ -4792,19 +4792,19 @@
         <v>158361</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150238</v>
+        <v>149848</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163248</v>
+        <v>163240</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.953277917619329</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9043810774804273</v>
+        <v>0.9020324104403543</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9826963915064402</v>
+        <v>0.9826454434775258</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>643</v>
@@ -4813,19 +4813,19 @@
         <v>674117</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>664636</v>
+        <v>663289</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680695</v>
+        <v>680609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9797700187079701</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9659898074342801</v>
+        <v>0.9640328889529787</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9893304365288293</v>
+        <v>0.9892059650112808</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>26667</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17362</v>
+        <v>17639</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38792</v>
+        <v>38198</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02319601959860863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01510205111071066</v>
+        <v>0.01534330552491692</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0337424325220192</v>
+        <v>0.03322571062453921</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -4938,19 +4938,19 @@
         <v>27261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17994</v>
+        <v>17972</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39195</v>
+        <v>38960</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03300917825802776</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02178811977012926</v>
+        <v>0.02176063048575467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04745898060626948</v>
+        <v>0.04717363810978176</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -4959,19 +4959,19 @@
         <v>53929</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40049</v>
+        <v>40315</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68618</v>
+        <v>69290</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02729847085470617</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02027287066557545</v>
+        <v>0.02040751941014935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03473422832370437</v>
+        <v>0.03507425206582401</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1122971</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1110846</v>
+        <v>1111440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1132276</v>
+        <v>1131999</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9768039804013914</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9662575674779807</v>
+        <v>0.9667742893754608</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9848979488892893</v>
+        <v>0.9846566944750831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>772</v>
@@ -5009,19 +5009,19 @@
         <v>798615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>786681</v>
+        <v>786916</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>807882</v>
+        <v>807904</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9669908217419723</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9525410193937306</v>
+        <v>0.9528263618902182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9782118802298709</v>
+        <v>0.9782393695142453</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1849</v>
@@ -5030,19 +5030,19 @@
         <v>1921585</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1906896</v>
+        <v>1906224</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1935465</v>
+        <v>1935199</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9727015291452938</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9652657716762957</v>
+        <v>0.9649257479341761</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9797271293344247</v>
+        <v>0.9795924805898507</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>12702</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6427</v>
+        <v>6143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22640</v>
+        <v>21625</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02046404449868443</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0103547905376698</v>
+        <v>0.009896716949907729</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03647380537474328</v>
+        <v>0.03483977533004032</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -5155,19 +5155,19 @@
         <v>17562</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10659</v>
+        <v>10283</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28546</v>
+        <v>26148</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02378934856369125</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0144378592835525</v>
+        <v>0.0139296624698788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03866741167363796</v>
+        <v>0.03541967120435818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -5176,19 +5176,19 @@
         <v>30264</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20199</v>
+        <v>21137</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43201</v>
+        <v>43577</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0222705025629183</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0148636329211634</v>
+        <v>0.01555386475938101</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03178981426922976</v>
+        <v>0.03206646376032796</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>608004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>598066</v>
+        <v>599081</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>614279</v>
+        <v>614563</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9795359555013156</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9635261946252567</v>
+        <v>0.9651602246699597</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9896452094623303</v>
+        <v>0.9901032830500922</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>682</v>
@@ -5226,19 +5226,19 @@
         <v>720682</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>709698</v>
+        <v>712096</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>727585</v>
+        <v>727961</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9762106514363087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9613325883263618</v>
+        <v>0.9645803287956418</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9855621407164474</v>
+        <v>0.9860703375301212</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1268</v>
@@ -5247,19 +5247,19 @@
         <v>1328686</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1315749</v>
+        <v>1315373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1338751</v>
+        <v>1337813</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9777294974370817</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9682101857307701</v>
+        <v>0.9679335362396719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9851363670788366</v>
+        <v>0.984446135240619</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>2956</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8060</v>
+        <v>7840</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01029556738220426</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003227896016415584</v>
+        <v>0.003216296459981731</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02806794576236426</v>
+        <v>0.02730347478791228</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -5372,19 +5372,19 @@
         <v>17904</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10084</v>
+        <v>10358</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27686</v>
+        <v>28187</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01654678072709835</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009319259356306621</v>
+        <v>0.009572578639080788</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02558677172118158</v>
+        <v>0.02605019530504035</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -5393,19 +5393,19 @@
         <v>20860</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12174</v>
+        <v>12822</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31989</v>
+        <v>31773</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01523576341142679</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008891636320213905</v>
+        <v>0.009364759693379344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02336369985182625</v>
+        <v>0.02320615041717739</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>284189</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>279085</v>
+        <v>279305</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286218</v>
+        <v>286221</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9897044326177957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9719320542376355</v>
+        <v>0.9726965252120876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9967721039835844</v>
+        <v>0.9967837035400183</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>976</v>
@@ -5443,19 +5443,19 @@
         <v>1064121</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1054339</v>
+        <v>1053838</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1071941</v>
+        <v>1071667</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9834532192729016</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9744132282788184</v>
+        <v>0.9739498046949606</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9906807406436934</v>
+        <v>0.9904274213609193</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1245</v>
@@ -5464,19 +5464,19 @@
         <v>1348310</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1337181</v>
+        <v>1337397</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1356996</v>
+        <v>1356348</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9847642365885733</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9766363001481742</v>
+        <v>0.9767938495828226</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9911083636797861</v>
+        <v>0.9906352403066213</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>69134</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53853</v>
+        <v>54417</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86997</v>
+        <v>87520</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02041939912082718</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01590598448031275</v>
+        <v>0.01607256715779946</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02569514880083796</v>
+        <v>0.02584968957535054</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>73</v>
@@ -5589,19 +5589,19 @@
         <v>79964</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61244</v>
+        <v>63747</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97753</v>
+        <v>98894</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02264236370427572</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01734167413413428</v>
+        <v>0.01805050536270913</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02767961863167227</v>
+        <v>0.02800269747566983</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>138</v>
@@ -5610,19 +5610,19 @@
         <v>149098</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>125045</v>
+        <v>126007</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>175547</v>
+        <v>175603</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02155432055937529</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01807706751044985</v>
+        <v>0.01821611121641806</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02537785679208343</v>
+        <v>0.02538595784915262</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3316588</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3298725</v>
+        <v>3298202</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3331869</v>
+        <v>3331305</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9795806008791729</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9743048511991621</v>
+        <v>0.9741503104246495</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9840940155196872</v>
+        <v>0.9839274328422005</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3253</v>
@@ -5660,19 +5660,19 @@
         <v>3451632</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3433843</v>
+        <v>3432702</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3470352</v>
+        <v>3467849</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9773576362957243</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9723203813683277</v>
+        <v>0.9719973025243303</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9826583258658657</v>
+        <v>0.981949494637291</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6412</v>
@@ -5681,19 +5681,19 @@
         <v>6768220</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6741771</v>
+        <v>6741715</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6792273</v>
+        <v>6791311</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9784456794406247</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9746221432079165</v>
+        <v>0.9746140421508473</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.98192293248955</v>
+        <v>0.9817838887835818</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>8117</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4278</v>
+        <v>3908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16070</v>
+        <v>15429</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01474138851025177</v>
+        <v>0.01474138851025178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007769777800732042</v>
+        <v>0.007097120173507018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02918616485348429</v>
+        <v>0.02802044511228237</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -6048,19 +6048,19 @@
         <v>19820</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13005</v>
+        <v>13017</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29942</v>
+        <v>29844</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04058076662547333</v>
+        <v>0.04058076662547332</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02662685399040582</v>
+        <v>0.02665228682660772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06130513032709256</v>
+        <v>0.06110360487331053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -6069,19 +6069,19 @@
         <v>27937</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19462</v>
+        <v>18913</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38371</v>
+        <v>38135</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02688756701711358</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01873136364100958</v>
+        <v>0.01820252010830791</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03692957808896741</v>
+        <v>0.03670219348857068</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>542501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>534548</v>
+        <v>535189</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>546340</v>
+        <v>546710</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9852586114897482</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9708138351465154</v>
+        <v>0.9719795548877181</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9922302221992684</v>
+        <v>0.9929028798264929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>660</v>
@@ -6119,19 +6119,19 @@
         <v>468591</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458469</v>
+        <v>458567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>475406</v>
+        <v>475394</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9594192333745268</v>
+        <v>0.9594192333745267</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9386948696729077</v>
+        <v>0.9388963951266894</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9733731460095942</v>
+        <v>0.9733477131733922</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1204</v>
@@ -6140,19 +6140,19 @@
         <v>1011092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1000658</v>
+        <v>1000894</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1019567</v>
+        <v>1020116</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9731124329828865</v>
+        <v>0.9731124329828863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9630704219110328</v>
+        <v>0.9632978065114292</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9812686363589905</v>
+        <v>0.9817974798916921</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>7766</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3804</v>
+        <v>3987</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14304</v>
+        <v>15114</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01607242978253179</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00787208098703374</v>
+        <v>0.008250296558107637</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02960230199050761</v>
+        <v>0.03127759979450299</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -6265,19 +6265,19 @@
         <v>6835</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3214</v>
+        <v>3516</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12843</v>
+        <v>12936</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01615175838173005</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007596675752279959</v>
+        <v>0.008309047255600773</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03035202722545384</v>
+        <v>0.03057006711747387</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -6286,19 +6286,19 @@
         <v>14601</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8602</v>
+        <v>8727</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23278</v>
+        <v>21894</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01610946530375653</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009491182700023741</v>
+        <v>0.009628314535145564</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02568279971604856</v>
+        <v>0.02415655971881617</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>475446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468908</v>
+        <v>468098</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>479408</v>
+        <v>479225</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9839275702174682</v>
+        <v>0.9839275702174681</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9703976980094925</v>
+        <v>0.9687224002054975</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9921279190129662</v>
+        <v>0.9917497034418924</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>581</v>
@@ -6336,19 +6336,19 @@
         <v>416308</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>410300</v>
+        <v>410207</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419929</v>
+        <v>419627</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9838482416182699</v>
+        <v>0.9838482416182698</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9696479727745465</v>
+        <v>0.9694299328825261</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9924033242477203</v>
+        <v>0.9916909527443992</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1052</v>
@@ -6357,19 +6357,19 @@
         <v>891754</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>883077</v>
+        <v>884461</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>897753</v>
+        <v>897628</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9838905346962435</v>
+        <v>0.9838905346962434</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.974317200283951</v>
+        <v>0.9758434402811836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9905088172999761</v>
+        <v>0.9903716854648545</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>21155</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12909</v>
+        <v>13513</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32607</v>
+        <v>33285</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04485578025726897</v>
+        <v>0.04485578025726898</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02737202467777794</v>
+        <v>0.02865196857193431</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06914051313000626</v>
+        <v>0.07057665750262718</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -6482,19 +6482,19 @@
         <v>9328</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5081</v>
+        <v>5669</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15168</v>
+        <v>14968</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04974891782275955</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02709758855333117</v>
+        <v>0.03023698474476505</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08089610729664666</v>
+        <v>0.07983026652137661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -6503,19 +6503,19 @@
         <v>30482</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20665</v>
+        <v>21802</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42610</v>
+        <v>43613</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04624773516675223</v>
+        <v>0.04624773516675224</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03135238133982188</v>
+        <v>0.03307859988104376</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06464742272478059</v>
+        <v>0.06616900689828648</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>450457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>439005</v>
+        <v>438327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>458703</v>
+        <v>458099</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9551442197427312</v>
+        <v>0.9551442197427309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9308594868699938</v>
+        <v>0.929423342497373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9726279753222219</v>
+        <v>0.9713480314280658</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>275</v>
@@ -6553,19 +6553,19 @@
         <v>178169</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172329</v>
+        <v>172529</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>182416</v>
+        <v>181828</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9502510821772403</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9191038927033537</v>
+        <v>0.920169733478624</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9729024114466689</v>
+        <v>0.969763015255235</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>743</v>
@@ -6574,19 +6574,19 @@
         <v>628627</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616499</v>
+        <v>615496</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638444</v>
+        <v>637307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9537522648332478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9353525772752195</v>
+        <v>0.9338309931017135</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9686476186601781</v>
+        <v>0.9669214001189562</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>26128</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17076</v>
+        <v>16733</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40591</v>
+        <v>40549</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02308412322138894</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01508666728461678</v>
+        <v>0.01478377487018828</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03586274360576167</v>
+        <v>0.03582527756560167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -6699,19 +6699,19 @@
         <v>25498</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17713</v>
+        <v>18162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35474</v>
+        <v>34316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02963955763008026</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02058953914880682</v>
+        <v>0.02111197756573758</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04123518384582475</v>
+        <v>0.03988930162391948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -6720,19 +6720,19 @@
         <v>51626</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38784</v>
+        <v>38212</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67982</v>
+        <v>68374</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02591503525166224</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01946880376211141</v>
+        <v>0.01918159011546294</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03412552847415876</v>
+        <v>0.03432194386446177</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1105715</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1091252</v>
+        <v>1091294</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1114767</v>
+        <v>1115110</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.976915876778611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9641372563942382</v>
+        <v>0.9641747224343981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9849133327153833</v>
+        <v>0.9852162251298118</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1190</v>
@@ -6770,19 +6770,19 @@
         <v>834786</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>824810</v>
+        <v>825968</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>842571</v>
+        <v>842122</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9703604423699197</v>
+        <v>0.9703604423699196</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9587648161541754</v>
+        <v>0.9601106983760803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9794104608511933</v>
+        <v>0.9788880224342624</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2283</v>
@@ -6791,19 +6791,19 @@
         <v>1940501</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1924145</v>
+        <v>1923753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1953343</v>
+        <v>1953915</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9740849647483376</v>
+        <v>0.9740849647483378</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9658744715258413</v>
+        <v>0.9656780561355383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9805311962378885</v>
+        <v>0.9808184098845372</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>9765</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5089</v>
+        <v>5524</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17200</v>
+        <v>17045</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01723743182687152</v>
+        <v>0.01723743182687153</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008984402823483496</v>
+        <v>0.009751468545509722</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03036347010083188</v>
+        <v>0.03008895679490318</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -6916,19 +6916,19 @@
         <v>34527</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25639</v>
+        <v>25891</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44740</v>
+        <v>45812</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04159247938116332</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03088536804806301</v>
+        <v>0.03118978312510352</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05389517756230452</v>
+        <v>0.05518668431550446</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -6937,19 +6937,19 @@
         <v>44292</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33641</v>
+        <v>34004</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56658</v>
+        <v>57459</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03171378006001001</v>
+        <v>0.03171378006001</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02408780354894939</v>
+        <v>0.02434750160833367</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04056839148819798</v>
+        <v>0.04114161732981178</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>556716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>549281</v>
+        <v>549436</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>561392</v>
+        <v>560957</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9827625681731285</v>
+        <v>0.9827625681731287</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.969636529899167</v>
+        <v>0.969911043205097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9910155971765163</v>
+        <v>0.9902485314544904</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1236</v>
@@ -6987,19 +6987,19 @@
         <v>795600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>785387</v>
+        <v>784315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>804488</v>
+        <v>804236</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9584075206188366</v>
+        <v>0.9584075206188368</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9461048224376953</v>
+        <v>0.9448133156844958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.969114631951937</v>
+        <v>0.9688102168748964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1769</v>
@@ -7008,19 +7008,19 @@
         <v>1352316</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1339950</v>
+        <v>1339149</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1362967</v>
+        <v>1362604</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9682862199399901</v>
+        <v>0.9682862199399899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.959431608511802</v>
+        <v>0.9588583826701881</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9759121964510505</v>
+        <v>0.9756524983916659</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>8086</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2517</v>
+        <v>2320</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20529</v>
+        <v>21802</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03408347808981856</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01060937245962529</v>
+        <v>0.009781009375113619</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08653837706168777</v>
+        <v>0.09190250112999064</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -7133,19 +7133,19 @@
         <v>22242</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15227</v>
+        <v>15007</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32226</v>
+        <v>31335</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02638402710259789</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01806287498887435</v>
+        <v>0.01780145606263139</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03822823815552547</v>
+        <v>0.03717145635177576</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -7154,19 +7154,19 @@
         <v>30327</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20154</v>
+        <v>20886</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44661</v>
+        <v>45087</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02807490686285002</v>
+        <v>0.02807490686285001</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01865742912436749</v>
+        <v>0.01933451645281151</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04134403058495945</v>
+        <v>0.04173859649763677</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>229142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>216699</v>
+        <v>215426</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234711</v>
+        <v>234908</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9659165219101815</v>
+        <v>0.9659165219101814</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9134616229383116</v>
+        <v>0.9080974988700093</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9893906275403747</v>
+        <v>0.9902189906248863</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1125</v>
@@ -7204,19 +7204,19 @@
         <v>820751</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>810767</v>
+        <v>811658</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>827766</v>
+        <v>827986</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9736159728974022</v>
+        <v>0.9736159728974019</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9617717618444757</v>
+        <v>0.9628285436482242</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.981937125011126</v>
+        <v>0.9821985439373686</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1233</v>
@@ -7225,19 +7225,19 @@
         <v>1049894</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1035560</v>
+        <v>1035134</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1060067</v>
+        <v>1059335</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.97192509313715</v>
+        <v>0.9719250931371499</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9586559694150406</v>
+        <v>0.9582614035023632</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9813425708756327</v>
+        <v>0.9806654835471886</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>81016</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64509</v>
+        <v>64717</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103839</v>
+        <v>102961</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02354424640050405</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01874726409679746</v>
+        <v>0.01880771582021027</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03017716226929498</v>
+        <v>0.0299218717604595</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>172</v>
@@ -7350,19 +7350,19 @@
         <v>118249</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99117</v>
+        <v>100902</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>137020</v>
+        <v>138564</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03255357800734741</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02728640131369271</v>
+        <v>0.02777793829321969</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0377210269382182</v>
+        <v>0.0381460461564946</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>253</v>
@@ -7371,19 +7371,19 @@
         <v>199265</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>174459</v>
+        <v>173824</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>228652</v>
+        <v>231706</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02817084291909264</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02466389178356337</v>
+        <v>0.02457417482720412</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03232542563408006</v>
+        <v>0.03275718841498956</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3359977</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3337154</v>
+        <v>3338032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3376484</v>
+        <v>3376276</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.976455753599496</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9698228377307054</v>
+        <v>0.9700781282395403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9812527359032026</v>
+        <v>0.9811922841797898</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5067</v>
@@ -7421,19 +7421,19 @@
         <v>3514206</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3495435</v>
+        <v>3493891</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3533338</v>
+        <v>3531553</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9674464219926524</v>
+        <v>0.9674464219926525</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9622789730617819</v>
+        <v>0.9618539538435054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9727135986863072</v>
+        <v>0.9722220617067802</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8284</v>
@@ -7442,19 +7442,19 @@
         <v>6874184</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6844797</v>
+        <v>6841743</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6898990</v>
+        <v>6899625</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9718291570809074</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.96767457436592</v>
+        <v>0.9672428115850107</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9753361082164366</v>
+        <v>0.9754258251727957</v>
       </c>
     </row>
     <row r="24">
